--- a/Data/Temp/dt_invoicesData.xlsx
+++ b/Data/Temp/dt_invoicesData.xlsx
@@ -28,58 +28,40 @@
     <x:t>Invoice Url</x:t>
   </x:si>
   <x:si>
-    <x:t>2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>su5t3u1pm99c21vf1l464r</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://rpachallengeocr.azurewebsites.net/invoices/10.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>xdmwg0wvqhrf7nx7n83ut</x:t>
+    <x:t>4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>qggbra4vo6gg20abvansjl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://rpachallengeocr.azurewebsites.net/invoices/7.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>vk8g5jf1onlhev3zli5rtl</x:t>
   </x:si>
   <x:si>
     <x:t>https://rpachallengeocr.azurewebsites.net/invoices/9.jpg</x:t>
   </x:si>
   <x:si>
-    <x:t>4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m520b7tzck28stzzcmabp</x:t>
+    <x:t>7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>82bd360amnxy4i4z9jyy99</x:t>
   </x:si>
   <x:si>
     <x:t>https://rpachallengeocr.azurewebsites.net/invoices/11.jpg</x:t>
   </x:si>
   <x:si>
-    <x:t>5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>60pcvhej7k3ejk02qipfp</x:t>
+    <x:t>11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>695i7nvvpx8389pu0nsskc</x:t>
   </x:si>
   <x:si>
     <x:t>https://rpachallengeocr.azurewebsites.net/invoices/12.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>fo7kwukgkepwt9h09o2eqh</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://rpachallengeocr.azurewebsites.net/invoices/8.jpg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6gbtbh7pwebia2zeahdcrc</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://rpachallengeocr.azurewebsites.net/invoices/7.jpg</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -437,7 +419,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:D7"/>
+  <x:dimension ref="A1:D5"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -465,7 +447,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C2" s="1">
-        <x:v>45532</x:v>
+        <x:v>45504</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
         <x:v>6</x:v>
@@ -479,7 +461,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C3" s="1">
-        <x:v>45500</x:v>
+        <x:v>45523</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
         <x:v>9</x:v>
@@ -493,7 +475,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C4" s="1">
-        <x:v>45519</x:v>
+        <x:v>45502</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
         <x:v>12</x:v>
@@ -507,38 +489,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C5" s="1">
-        <x:v>45508</x:v>
+        <x:v>45523</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
         <x:v>15</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:4">
-      <x:c r="A6" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="C6" s="1">
-        <x:v>45532</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:4">
-      <x:c r="A7" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="B7" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="C7" s="1">
-        <x:v>45486</x:v>
-      </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>21</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
